--- a/pred_ohlcv/54_21/2019-11-12 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-12 ABT ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>321872.5123</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>321872.5123</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>418883.9159887852</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>429969.8184887852</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>424401.1583887852</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>410071.1694887852</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>437342.1859754079</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>437342.1859754079</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>437342.1859754079</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>434961.9572855774</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>468075.2069855774</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>482322.6840855774</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>482822.6840855774</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>481628.9522855774</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>417374.0530855774</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>478281.1653869226</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>478281.1653869226</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>478039.2848869226</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>478539.2848869226</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>478539.2848869226</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>478539.2848869226</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>477539.2848869226</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>477539.2848869226</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>477401.2848869226</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>477326.4869869226</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>477464.4869869226</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>493539.5823274184</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>492517.7576274184</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>492517.7576274184</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>492517.7576274184</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>491117.7576274184</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>490602.8463274184</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>492234.7890274184</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>490372.6328419483</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>668837.3927847362</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>689969.3606847363</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>678763.9979847362</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>673720.2754847362</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>631193.1460847362</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>668822.0130847362</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>682150.0220847361</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>681665.6854847361</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>681665.6854847361</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>680539.6601847361</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>687611.3563847361</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>686310.8446847361</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>663191.6943847361</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>652175.0140847361</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>652175.0140847361</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>656177.3026847361</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>646765.6198847361</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>648896.6198847361</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>652502.8629847361</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>651402.8629847361</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>654509.0459847361</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>665939.9603847361</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>660509.8605847361</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>658423.7993847361</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>679129.3411847361</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>681996.2754847361</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>681996.2754847361</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>681996.2754847361</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>683660.817184736</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>683660.817184736</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>689876.557884736</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>687802.9786190643</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>687802.9786190643</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>685020.2039190644</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>703126.1757205625</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>699911.8513205624</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>699911.8513205624</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>704390.2286205625</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>702990.2286205625</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>704394.2286205625</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>701051.7407205625</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>682751.8413987226</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>681482.6659987227</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>692387.1232987227</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>699189.7527339954</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>708140.8097339955</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>708182.8097339955</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>732112.6557774119</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>725941.6375877322</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>725491.6375877322</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>725491.6375877322</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>725491.6375877322</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>725532.7084877322</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>721528.3290877322</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>721528.3290877322</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>721699.9881877323</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>726613.9473877323</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>718809.8054877323</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>718854.7967877323</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>718854.7967877323</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>718854.7967877323</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>718245.7967877323</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>718245.7967877323</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>718245.7967877323</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>716052.7852877323</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>716537.9651877322</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>717386.9675877322</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>716602.7178877322</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>719963.9122877322</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>719809.2997877322</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>715975.5973877322</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>715975.5973877322</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>716503.5110877323</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>716253.5110877323</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>716253.5110877323</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>716255.5110877323</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>715919.5386877323</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>715919.5386877323</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>721535.2850877322</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>728214.4980877322</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>723248.3663877322</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>722923.2412877323</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>729216.2112877322</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>729003.8519877322</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>720317.0160877323</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>720650.0160877323</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>720756.0706877323</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>738531.5716877324</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>759374.4749877324</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>760441.7186877324</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>760441.7186877324</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>779364.7926877324</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>776562.7926877324</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>778087.1497877324</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>776085.0327877324</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>769174.9658877325</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>769215.9629877325</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>765070.7699877325</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>767372.6734877325</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>767372.6734877325</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>759800.5771877326</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>761775.5984877326</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>758984.3669877326</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>758984.3669877326</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>758984.3669877326</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>755002.2415877326</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>755002.2415877326</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>755765.8261877325</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>759874.9274877325</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>759793.9274877325</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>752621.0176877325</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>759694.3608877325</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>757677.4994877324</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>757677.4994877324</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>757677.4994877324</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>757677.4994877324</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>755896.2386877324</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>754881.3612877324</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>754662.9395877324</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>756963.0201877324</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>756256.3708877324</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>758059.9926877323</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>757954.9926877323</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>757193.5333877323</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>757193.5333877323</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>757193.5333877323</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>757710.6126877323</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>742569.5938877324</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>743407.0862877324</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>743305.9425877323</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>743345.4244877324</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>741248.9046877323</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>746432.8276877324</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-12 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-12 ABT ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>246857.5398</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>309576.0358</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>418883.9159887852</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>429969.8184887852</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>424401.1583887852</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>410071.1694887852</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>437342.1859754079</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>437342.1859754079</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>437342.1859754079</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>434961.9572855774</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>468075.2069855774</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>482322.6840855774</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>482822.6840855774</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>481628.9522855774</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>417374.0530855774</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>478281.1653869226</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>478281.1653869226</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>478039.2848869226</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>478539.2848869226</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>478539.2848869226</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>478539.2848869226</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>477539.2848869226</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>477539.2848869226</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>477401.2848869226</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>477326.4869869226</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>477464.4869869226</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>493539.5823274184</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>492517.7576274184</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>492517.7576274184</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>492517.7576274184</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>491117.7576274184</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>490602.8463274184</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>492234.7890274184</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>490834.7890274184</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>490372.6328419483</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>656790.3456890628</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>652416.6881142427</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>668837.3927847362</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>689969.3606847363</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>678763.9979847362</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>673720.2754847362</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>670711.3788847362</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>631193.1460847362</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>668822.0130847362</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>682150.0220847361</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>681665.6854847361</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>681665.6854847361</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>680539.6601847361</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>687611.3563847361</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>686310.8446847361</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>663191.6943847361</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>652175.0140847361</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>652175.0140847361</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>656177.3026847361</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>648896.6198847361</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>651402.8629847361</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>654509.0459847361</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>665939.9603847361</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>660509.8605847361</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>658423.7993847361</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>679129.3411847361</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>681996.2754847361</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>683660.817184736</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>683660.817184736</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>689876.557884736</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>687802.9786190643</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>721528.3290877322</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
